--- a/data/LP.xlsx
+++ b/data/LP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E74F1FB3-5E68-1745-9E1E-18400BD867D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FF06FE-3036-2644-8FE8-6F08433D4A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19720" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Code Apogée</t>
   </si>
@@ -110,18 +110,12 @@
     <t>Multisports : expertise théorique et pratique</t>
   </si>
   <si>
-    <t>APA2551B</t>
-  </si>
-  <si>
     <t>APA2552B</t>
   </si>
   <si>
     <t>APA2651B</t>
   </si>
   <si>
-    <t>APA2652B</t>
-  </si>
-  <si>
     <t>APA1511Z</t>
   </si>
   <si>
@@ -168,6 +162,9 @@
   </si>
   <si>
     <t>APA5651Z</t>
+  </si>
+  <si>
+    <t>APA2661Z</t>
   </si>
 </sst>
 </file>
@@ -548,7 +545,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,7 +587,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>511</v>
@@ -619,7 +616,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>521</v>
@@ -648,7 +645,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>531</v>
@@ -677,7 +674,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>541</v>
@@ -706,7 +703,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>551</v>
@@ -735,7 +732,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>551</v>
@@ -764,7 +761,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>551</v>
@@ -793,7 +790,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>552</v>
@@ -822,7 +819,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>551</v>
@@ -851,7 +848,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>551</v>
@@ -880,7 +877,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>611</v>
@@ -909,7 +906,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>621</v>
@@ -938,7 +935,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>631</v>
@@ -967,7 +964,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>641</v>
@@ -996,7 +993,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>651</v>
@@ -1025,7 +1022,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>651</v>
@@ -1054,7 +1051,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>651</v>
@@ -1083,7 +1080,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>652</v>
@@ -1112,7 +1109,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>651</v>
@@ -1141,7 +1138,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>651</v>

--- a/data/LP.xlsx
+++ b/data/LP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FF06FE-3036-2644-8FE8-6F08433D4A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00CBEA7-50C7-3C4E-ACAE-60B21E6D183F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19720" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19100" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
   <sheets>
     <sheet name="LP" sheetId="1" r:id="rId1"/>
@@ -110,9 +110,6 @@
     <t>Multisports : expertise théorique et pratique</t>
   </si>
   <si>
-    <t>APA2552B</t>
-  </si>
-  <si>
     <t>APA2651B</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>APA2661Z</t>
+  </si>
+  <si>
+    <t>APA2551B</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,7 +587,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>511</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>521</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>531</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>541</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>551</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>551</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>551</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>552</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>551</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>551</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>611</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>621</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>631</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>641</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>651</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>651</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>651</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>652</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>651</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21">
         <v>651</v>

--- a/data/LP.xlsx
+++ b/data/LP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00CBEA7-50C7-3C4E-ACAE-60B21E6D183F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E55CF7-0C49-CD4F-B4C1-7569C8DB943B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19100" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Code Apogée</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>APA2551B</t>
+  </si>
+  <si>
+    <t>APA</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,7 +773,7 @@
         <v>17</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -799,7 +802,7 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,7 +1025,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>651</v>
@@ -1060,7 +1063,7 @@
         <v>20</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1089,7 +1092,7 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>0</v>

--- a/data/LP.xlsx
+++ b/data/LP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E55CF7-0C49-CD4F-B4C1-7569C8DB943B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC37968-6B09-E145-B192-7ACDEB8833A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19100" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Code Apogée</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>APA</t>
+  </si>
+  <si>
+    <t>Groupes CM</t>
   </si>
 </sst>
 </file>
@@ -545,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D425352-B3D2-6642-82B3-EC9BD51219AA}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,7 +562,7 @@
     <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,19 +579,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -605,19 +611,22 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>36</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>6</v>
       </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -634,19 +643,22 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>36</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -663,19 +675,22 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>30</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -692,19 +707,22 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>42</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>28</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -721,19 +739,22 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>57</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -750,19 +771,22 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>57</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -779,19 +803,22 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>57</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -808,19 +835,22 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>57</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -837,19 +867,22 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>57</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -866,19 +899,22 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>67</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -895,19 +931,22 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>28</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -924,19 +963,22 @@
         <v>0</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>38</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>6</v>
       </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -953,19 +995,22 @@
         <v>0</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>28</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -982,19 +1027,22 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>32</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>48</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1011,19 +1059,22 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>60</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1040,19 +1091,22 @@
         <v>0</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>60</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1069,19 +1123,22 @@
         <v>0</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>60</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1098,19 +1155,22 @@
         <v>0</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>48</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1127,19 +1187,22 @@
         <v>0</v>
       </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>60</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1156,20 +1219,23 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>70</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I46">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J46">
     <sortCondition ref="B2:B46"/>
     <sortCondition ref="A2:A46"/>
   </sortState>

--- a/data/LP.xlsx
+++ b/data/LP.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC37968-6B09-E145-B192-7ACDEB8833A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D15863A-6085-444C-BEC6-6383BCFC807A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19100" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
   <sheets>
     <sheet name="LP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -167,10 +167,10 @@
     <t>APA2551B</t>
   </si>
   <si>
-    <t>APA</t>
-  </si>
-  <si>
     <t>Groupes CM</t>
+  </si>
+  <si>
+    <t>APA2651A</t>
   </si>
 </sst>
 </file>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D425352-B3D2-6642-82B3-EC9BD51219AA}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <v>651</v>
